--- a/src/test/data/anno_CommentOption.xlsx
+++ b/src/test/data/anno_CommentOption.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D929CAF-AB78-4DCD-BBD9-01533CEA074D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBF266F-6095-4B82-AD14-52B2E284B0DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33195" yWindow="1410" windowWidth="21615" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31500" yWindow="3840" windowWidth="21615" windowHeight="11655" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通常のテスト" sheetId="1" r:id="rId1"/>
+    <sheet name="独自実装" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -113,8 +114,50 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{B79409CC-71C0-4586-894E-6D159152B04D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>あいうえお。
+かきくけこ。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{006BF7B4-A081-4B6E-9008-84233A0B0E60}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>あいうえお。
+かきくけこ。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>アノテーション「@XlsCommentOption」のテスト</t>
     <phoneticPr fontId="2"/>
@@ -162,6 +205,51 @@
   </si>
   <si>
     <t>装飾したセル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コメント処理部分を独自実装に切り替える。</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>独自実装の処理</t>
+    <rPh sb="0" eb="2">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>標準の処理</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -169,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +304,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -284,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -300,6 +396,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -582,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -641,4 +738,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514A7F56-568F-4793-B52C-BAEBA95A544F}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>